--- a/medicine/Mort/Terrorisme_en_1990/Terrorisme_en_1990.xlsx
+++ b/medicine/Mort/Terrorisme_en_1990/Terrorisme_en_1990.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +520,122 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-4 février, Égypte : un attentat contre un car de touristes israéliens près d'Ismaïlia fait neuf morts[1].
-16 février, Belgique : Une bombe explose au sein d'un auditoire de l'Université catholique de Louvain sur le site de  Woluwe-Saint-Lambert faisant 50 blessés. L'attentat n'a pas été revendiqué[2],[3].
-Mars
-Avril
-Mai
-Juin
-Juillet
-Août
-Septembre
-27 septembre, Djibouti : un attentat à la grenade, au café de Paris à Djibouti, cause la mort d'un enfant et fait dix-sept blessés[4].
-Octobre
-24 octobre, Irlande du Nord : l'IRA force un employé civil de l'armée britannique à déposer une bombe à un barrage de l'armée à la frontière avec la république d'Irlande. L'explosion cause la mort de cinq personnes[réf. souhaitée].
-Novembre
-Décembre
-8 décembre, Espagne : un attentat d'ETA à Barcelone contre une fourgonnette de policiers assurant la sécurité d'un match de football fait six morts[réf. souhaitée].</t>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4 février, Égypte : un attentat contre un car de touristes israéliens près d'Ismaïlia fait neuf morts.
+16 février, Belgique : Une bombe explose au sein d'un auditoire de l'Université catholique de Louvain sur le site de  Woluwe-Saint-Lambert faisant 50 blessés. L'attentat n'a pas été revendiqué,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1990</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>27 septembre, Djibouti : un attentat à la grenade, au café de Paris à Djibouti, cause la mort d'un enfant et fait dix-sept blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1990</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1990</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24 octobre, Irlande du Nord : l'IRA force un employé civil de l'armée britannique à déposer une bombe à un barrage de l'armée à la frontière avec la république d'Irlande. L'explosion cause la mort de cinq personnes[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1990</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1990</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8 décembre, Espagne : un attentat d'ETA à Barcelone contre une fourgonnette de policiers assurant la sécurité d'un match de football fait six morts[réf. souhaitée].</t>
         </is>
       </c>
     </row>
